--- a/src/attributions/attributions_saliency_traj_484.xlsx
+++ b/src/attributions/attributions_saliency_traj_484.xlsx
@@ -1573,1140 +1573,1140 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2571395039558411</v>
+        <v>0.4560750126838684</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1167355328798294</v>
+        <v>0.2015168815851212</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6646257638931274</v>
+        <v>0.05968505889177322</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4251430630683899</v>
+        <v>0.03176242858171463</v>
       </c>
       <c r="E3" t="n">
-        <v>1.856751084327698</v>
+        <v>0.09491648524999619</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3460312485694885</v>
+        <v>0.07713378220796585</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1700076460838318</v>
+        <v>0.09352665394544601</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07468989491462708</v>
+        <v>0.00820388738065958</v>
       </c>
       <c r="I3" t="n">
-        <v>1.21166729927063</v>
+        <v>0.05947276949882507</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6409649848937988</v>
+        <v>0.4231305122375488</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3375547826290131</v>
+        <v>0.01959259808063507</v>
       </c>
       <c r="L3" t="n">
-        <v>1.053239822387695</v>
+        <v>0.09222669154405594</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6198638677597046</v>
+        <v>0.07587901502847672</v>
       </c>
       <c r="N3" t="n">
-        <v>1.081486344337463</v>
+        <v>0.2329255044460297</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02801808714866638</v>
+        <v>0.2165298461914062</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1491069197654724</v>
+        <v>0.170661985874176</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3275840878486633</v>
+        <v>0.06532009690999985</v>
       </c>
       <c r="R3" t="n">
-        <v>1.069785118103027</v>
+        <v>0.1326940953731537</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2043726742267609</v>
+        <v>0.04875124990940094</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3070431649684906</v>
+        <v>0.01920985616743565</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1898704171180725</v>
+        <v>0.0565415732562542</v>
       </c>
       <c r="V3" t="n">
-        <v>0.3771339654922485</v>
+        <v>0.01480170525610447</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3239631652832031</v>
+        <v>0.2536489069461823</v>
       </c>
       <c r="X3" t="n">
-        <v>0.3062743246555328</v>
+        <v>0.005377499386668205</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.002127975691109896</v>
+        <v>0.1479622274637222</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.1529459804296494</v>
+        <v>0.1076676249504089</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.2349775731563568</v>
+        <v>0.04941187053918839</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.01180367916822433</v>
+        <v>0.02963403053581715</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.09071250259876251</v>
+        <v>0.005494258366525173</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.1246079280972481</v>
+        <v>0.03076454997062683</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.4135008156299591</v>
+        <v>0.02167503535747528</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.5618448257446289</v>
+        <v>0.213190570473671</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.7247446179389954</v>
+        <v>0.03987713903188705</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.029843769967556</v>
+        <v>0.08223292231559753</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.2823308110237122</v>
+        <v>0.1240112856030464</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.201933816075325</v>
+        <v>0.06845451146364212</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.2088643461465836</v>
+        <v>0.1185920313000679</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.1767421662807465</v>
+        <v>0.05458251759409904</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.2697149515151978</v>
+        <v>0.06370669603347778</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.122837021946907</v>
+        <v>0.09852209687232971</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.3218288421630859</v>
+        <v>0.1467992216348648</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.5257013440132141</v>
+        <v>0.05788886919617653</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.04041997343301773</v>
+        <v>0.07376464456319809</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.2895448207855225</v>
+        <v>0.01868821494281292</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.1043151244521141</v>
+        <v>0.02147957310080528</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.101581022143364</v>
+        <v>0.2621770799160004</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.2084956020116806</v>
+        <v>0.11387600004673</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.6544776558876038</v>
+        <v>0.01374950166791677</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.01354348659515381</v>
+        <v>0.1088069826364517</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.8019046783447266</v>
+        <v>0.004862068220973015</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.2120015472173691</v>
+        <v>0.04667983204126358</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.3376224339008331</v>
+        <v>0.1340956836938858</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.470330148935318</v>
+        <v>0.0465199314057827</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.8100705146789551</v>
+        <v>0.006712302565574646</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.0171736404299736</v>
+        <v>0.105413094162941</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.1839970052242279</v>
+        <v>0.1947290152311325</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.008254937827587128</v>
+        <v>0.08682336658239365</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.1112891361117363</v>
+        <v>0.2411367744207382</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.2852480411529541</v>
+        <v>0.04384223744273186</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.07502017915248871</v>
+        <v>0.05182062834501266</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.08568328619003296</v>
+        <v>0.1314884722232819</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.3719114363193512</v>
+        <v>0.1832874417304993</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.09103947877883911</v>
+        <v>0.07873570173978806</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.08367966115474701</v>
+        <v>0.02850467711687088</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.1203180477023125</v>
+        <v>0.1368229240179062</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.7430727481842041</v>
+        <v>0.1093301996588707</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.1577243059873581</v>
+        <v>0.05064977705478668</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.3289385139942169</v>
+        <v>0.1280783414840698</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.18978351354599</v>
+        <v>0.1605179607868195</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.07494449615478516</v>
+        <v>0.001697495463304222</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.2581869661808014</v>
+        <v>0.0480230338871479</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.0299355611205101</v>
+        <v>0.01096084527671337</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.3589580357074738</v>
+        <v>0.1642633825540543</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.03608877584338188</v>
+        <v>0.01866883412003517</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.04664438962936401</v>
+        <v>0.02242847345769405</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.04661354422569275</v>
+        <v>0.1378691792488098</v>
       </c>
       <c r="BY3" t="n">
-        <v>1.454785108566284</v>
+        <v>0.1584346443414688</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.4844102263450623</v>
+        <v>0.00227908231317997</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.181049644947052</v>
+        <v>0.02239724434912205</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.1680760234594345</v>
+        <v>0.0131048234179616</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.649260938167572</v>
+        <v>0.04346740990877151</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.09743472933769226</v>
+        <v>0.08663174510002136</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.3585251271724701</v>
+        <v>0.08356592059135437</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.1304671317338943</v>
+        <v>0.008148832246661186</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.04490817710757256</v>
+        <v>0.07413829863071442</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.3729564845561981</v>
+        <v>0.01219504233449697</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.0576307475566864</v>
+        <v>0.04741643369197845</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.01331078633666039</v>
+        <v>0.01131546124815941</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.2148957401514053</v>
+        <v>0.1047759428620338</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.156959056854248</v>
+        <v>0.0006848378106951714</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.1372583210468292</v>
+        <v>0.05360043793916702</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.5367452502250671</v>
+        <v>0.002840702421963215</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.01660272665321827</v>
+        <v>0.1002050489187241</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.1397057920694351</v>
+        <v>0.02397168427705765</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.5342105627059937</v>
+        <v>0.1230449378490448</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.0498383641242981</v>
+        <v>0.1503826677799225</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.145597368478775</v>
+        <v>0.02872005850076675</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.2867373824119568</v>
+        <v>0.07924236357212067</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.2478519678115845</v>
+        <v>0.001969832926988602</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.05425455793738365</v>
+        <v>0.08097158372402191</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.2965973317623138</v>
+        <v>0.08352868258953094</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.1931218355894089</v>
+        <v>0.004436676856130362</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.03367090597748756</v>
+        <v>0.03533191233873367</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.4592864513397217</v>
+        <v>0.01091033685952425</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.1048204004764557</v>
+        <v>0.01827625371515751</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.1471009701490402</v>
+        <v>0.003183342516422272</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.1800816655158997</v>
+        <v>0.09795811772346497</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.1822277903556824</v>
+        <v>0.02356606721878052</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.1660860478878021</v>
+        <v>0.1067397892475128</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.8474432229995728</v>
+        <v>0.02903085947036743</v>
       </c>
       <c r="DG3" t="n">
-        <v>1.586159706115723</v>
+        <v>0.01859722845256329</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.08711783587932587</v>
+        <v>0.2704220712184906</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.8780470490455627</v>
+        <v>0.01017681043595076</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.08199609071016312</v>
+        <v>0.1621051728725433</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.6304490566253662</v>
+        <v>0.09402310848236084</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.01534552872180939</v>
+        <v>0.1312518268823624</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.5620316863059998</v>
+        <v>0.01343795657157898</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.08081508427858353</v>
+        <v>0.07032401859760284</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.09541676938533783</v>
+        <v>0.00214864406734705</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.1355795860290527</v>
+        <v>0.01312855165451765</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.1087047532200813</v>
+        <v>0.03607120364904404</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.5646637678146362</v>
+        <v>0.03803456574678421</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.003036186099052429</v>
+        <v>0.06779889762401581</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.04851468279957771</v>
+        <v>0.1250383108854294</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.3828107118606567</v>
+        <v>0.1724496185779572</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.3831384479999542</v>
+        <v>0.03049484267830849</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.06652354449033737</v>
+        <v>0.04653691127896309</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.2514247894287109</v>
+        <v>0.1597563922405243</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.02008805237710476</v>
+        <v>0.03676895052194595</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.1275646090507507</v>
+        <v>0.08059293031692505</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.09020131826400757</v>
+        <v>0.1346737295389175</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.2291604280471802</v>
+        <v>0.04352656379342079</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.06242304295301437</v>
+        <v>0.0124308867380023</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.05800331383943558</v>
+        <v>0.1502916067838669</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.2532186508178711</v>
+        <v>0.02738695777952671</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.2212523967027664</v>
+        <v>0.08180833607912064</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.2985403537750244</v>
+        <v>0.08520032465457916</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.2468254119157791</v>
+        <v>0.02352778241038322</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.02690982073545456</v>
+        <v>0.05122272297739983</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.2525703907012939</v>
+        <v>0.0478523001074791</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.5408491492271423</v>
+        <v>0.008414514362812042</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.1449240446090698</v>
+        <v>0.01864870078861713</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.02841902524232864</v>
+        <v>0.03179421648383141</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.1493337899446487</v>
+        <v>0.007849136367440224</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.190754160284996</v>
+        <v>0.1067899242043495</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.5452675223350525</v>
+        <v>0.0432719960808754</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.1567566096782684</v>
+        <v>0.06390555948019028</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.05930047109723091</v>
+        <v>0.01913750544190407</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.06265674531459808</v>
+        <v>0.07683516293764114</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.1034233942627907</v>
+        <v>0.01522262208163738</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.3480314910411835</v>
+        <v>0.08989981561899185</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.08512419462203979</v>
+        <v>0.1124937534332275</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.08438557386398315</v>
+        <v>0.05800182744860649</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.1134604662656784</v>
+        <v>0.09613862633705139</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.2963539063930511</v>
+        <v>0.04810409247875214</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.1958890706300735</v>
+        <v>0.007483203895390034</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.03591634705662727</v>
+        <v>0.05300061777234077</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.3233341574668884</v>
+        <v>0.006502010859549046</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.0370291955769062</v>
+        <v>0.04288805276155472</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.0852176696062088</v>
+        <v>0.01277133822441101</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.2060949355363846</v>
+        <v>0.1031253188848495</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.2110849022865295</v>
+        <v>0.02055852860212326</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.03883180767297745</v>
+        <v>0.105305552482605</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.2167854905128479</v>
+        <v>0.09735122323036194</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.1654774397611618</v>
+        <v>0.08861087262630463</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.0575600191950798</v>
+        <v>0.03787169605493546</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.2428812682628632</v>
+        <v>0.07042562216520309</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.1980039179325104</v>
+        <v>0.007170828059315681</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.2214805781841278</v>
+        <v>0.03570301830768585</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.4377642869949341</v>
+        <v>0.02329013124108315</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.2323331832885742</v>
+        <v>0.0103633850812912</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.07058300822973251</v>
+        <v>0.2134477347135544</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.001257695257663727</v>
+        <v>0.06917743384838104</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.1012003198266029</v>
+        <v>0.0250705499202013</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.06538629531860352</v>
+        <v>0.1091957464814186</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.08620801568031311</v>
+        <v>0.2183631062507629</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.1258609890937805</v>
+        <v>0.03213062882423401</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.2786122858524323</v>
+        <v>0.1170120164752007</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.1856306791305542</v>
+        <v>0.005945848301053047</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.0175284743309021</v>
+        <v>0.0123438760638237</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.1728616654872894</v>
+        <v>0.02525599300861359</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.1319589465856552</v>
+        <v>0.001428760122507811</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.07434004545211792</v>
+        <v>0.1094491183757782</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.1294121444225311</v>
+        <v>0.05203170329332352</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.2454586923122406</v>
+        <v>0.1574185639619827</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.3926167190074921</v>
+        <v>0.07363683730363846</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.03432135283946991</v>
+        <v>0.01752600446343422</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.1147169321775436</v>
+        <v>0.1254563182592392</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.08248665183782578</v>
+        <v>0.09784843027591705</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.362426793605209e-08</v>
+        <v>2.499877155059949e-06</v>
       </c>
       <c r="B4" t="n">
-        <v>1.940849045922732e-07</v>
+        <v>6.38881658687751e-07</v>
       </c>
       <c r="C4" t="n">
-        <v>8.864638090244625e-08</v>
+        <v>7.030894835224899e-07</v>
       </c>
       <c r="D4" t="n">
-        <v>1.072628350584637e-07</v>
+        <v>2.078419925055641e-08</v>
       </c>
       <c r="E4" t="n">
-        <v>1.152276762894644e-08</v>
+        <v>2.833347707564826e-07</v>
       </c>
       <c r="F4" t="n">
-        <v>1.996228604639327e-08</v>
+        <v>7.99676769247526e-08</v>
       </c>
       <c r="G4" t="n">
-        <v>1.02083504316397e-07</v>
+        <v>1.200161932501942e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>5.561894056427263e-08</v>
+        <v>5.715074848922086e-07</v>
       </c>
       <c r="I4" t="n">
-        <v>3.271990323128193e-08</v>
+        <v>9.901706334858318e-07</v>
       </c>
       <c r="J4" t="n">
-        <v>8.6487830230908e-09</v>
+        <v>2.282643890794134e-06</v>
       </c>
       <c r="K4" t="n">
-        <v>2.073666394153406e-07</v>
+        <v>5.754031917604152e-07</v>
       </c>
       <c r="L4" t="n">
-        <v>1.544426737609683e-07</v>
+        <v>5.381269261306443e-07</v>
       </c>
       <c r="M4" t="n">
-        <v>1.834530110045307e-07</v>
+        <v>9.601399142411537e-08</v>
       </c>
       <c r="N4" t="n">
-        <v>2.555492706335372e-08</v>
+        <v>8.530944910489779e-07</v>
       </c>
       <c r="O4" t="n">
-        <v>5.010158332652281e-08</v>
+        <v>1.178660085088268e-07</v>
       </c>
       <c r="P4" t="n">
-        <v>4.356853366971336e-08</v>
+        <v>1.243577912646288e-06</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.545272532155195e-08</v>
+        <v>1.011666086014884e-06</v>
       </c>
       <c r="R4" t="n">
-        <v>3.761898526022378e-08</v>
+        <v>1.199554731101671e-06</v>
       </c>
       <c r="S4" t="n">
-        <v>4.106179574137059e-08</v>
+        <v>2.128260234712798e-08</v>
       </c>
       <c r="T4" t="n">
-        <v>1.004139527083225e-08</v>
+        <v>5.755265419793432e-07</v>
       </c>
       <c r="U4" t="n">
-        <v>2.909987983912288e-08</v>
+        <v>8.805251354715438e-07</v>
       </c>
       <c r="V4" t="n">
-        <v>6.960622300766772e-08</v>
+        <v>5.568649612541776e-07</v>
       </c>
       <c r="W4" t="n">
-        <v>1.580249708865722e-09</v>
+        <v>2.430976735467993e-07</v>
       </c>
       <c r="X4" t="n">
-        <v>3.174658047555567e-08</v>
+        <v>6.546089252879028e-07</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.038938072881137e-08</v>
+        <v>3.326121600366605e-07</v>
       </c>
       <c r="Z4" t="n">
-        <v>6.266430041534932e-09</v>
+        <v>2.134043342039149e-07</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.166781249395399e-08</v>
+        <v>7.339029934883001e-07</v>
       </c>
       <c r="AB4" t="n">
-        <v>4.964306299370946e-08</v>
+        <v>1.206289397259752e-07</v>
       </c>
       <c r="AC4" t="n">
-        <v>4.094541594668044e-08</v>
+        <v>1.880969080048089e-06</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.396739340326803e-08</v>
+        <v>1.623598251399017e-07</v>
       </c>
       <c r="AE4" t="n">
-        <v>3.819945959548932e-08</v>
+        <v>1.801984126359457e-07</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.014674814811769e-08</v>
+        <v>7.523869385295257e-07</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.089896433687954e-08</v>
+        <v>3.647708695098117e-07</v>
       </c>
       <c r="AH4" t="n">
-        <v>3.472435494700221e-08</v>
+        <v>4.278223286746652e-08</v>
       </c>
       <c r="AI4" t="n">
-        <v>6.474169200743063e-09</v>
+        <v>3.902425191881775e-07</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2.616608973937673e-08</v>
+        <v>2.859727317172656e-07</v>
       </c>
       <c r="AK4" t="n">
-        <v>3.12274828218051e-08</v>
+        <v>3.397294960905128e-07</v>
       </c>
       <c r="AL4" t="n">
-        <v>7.127003698315093e-08</v>
+        <v>5.179244766395641e-08</v>
       </c>
       <c r="AM4" t="n">
-        <v>7.154095271744154e-08</v>
+        <v>1.121802739589839e-07</v>
       </c>
       <c r="AN4" t="n">
-        <v>1.521663683945462e-08</v>
+        <v>5.074315367892268e-07</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.721329301318519e-09</v>
+        <v>1.074318589644463e-07</v>
       </c>
       <c r="AP4" t="n">
-        <v>3.05006508938277e-08</v>
+        <v>1.389796807416133e-06</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.416945050181084e-08</v>
+        <v>2.453902823162935e-07</v>
       </c>
       <c r="AR4" t="n">
-        <v>3.146268667819641e-08</v>
+        <v>4.917158946682321e-08</v>
       </c>
       <c r="AS4" t="n">
-        <v>8.636663828553992e-09</v>
+        <v>3.626912246090797e-07</v>
       </c>
       <c r="AT4" t="n">
-        <v>7.530942980338295e-08</v>
+        <v>6.038795277163445e-07</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.802889001595759e-08</v>
+        <v>7.734402629466786e-07</v>
       </c>
       <c r="AV4" t="n">
-        <v>1.792596648897415e-08</v>
+        <v>1.643614609747601e-06</v>
       </c>
       <c r="AW4" t="n">
-        <v>1.150522255244368e-08</v>
+        <v>1.705367367321742e-06</v>
       </c>
       <c r="AX4" t="n">
-        <v>2.628170747698277e-08</v>
+        <v>3.11178791889688e-06</v>
       </c>
       <c r="AY4" t="n">
-        <v>6.084870562972355e-08</v>
+        <v>9.00378495316545e-07</v>
       </c>
       <c r="AZ4" t="n">
-        <v>2.565054124659127e-08</v>
+        <v>8.506920607942448e-07</v>
       </c>
       <c r="BA4" t="n">
-        <v>2.892255857034343e-08</v>
+        <v>1.450498984922888e-06</v>
       </c>
       <c r="BB4" t="n">
-        <v>2.46993003827356e-08</v>
+        <v>1.075186787602433e-06</v>
       </c>
       <c r="BC4" t="n">
-        <v>8.899534975626011e-08</v>
+        <v>1.559387783345301e-06</v>
       </c>
       <c r="BD4" t="n">
-        <v>8.254899341864075e-08</v>
+        <v>1.431489977221645e-06</v>
       </c>
       <c r="BE4" t="n">
-        <v>5.67222571135062e-08</v>
+        <v>1.278073341381969e-06</v>
       </c>
       <c r="BF4" t="n">
-        <v>8.254537675611573e-08</v>
+        <v>4.930091677124437e-07</v>
       </c>
       <c r="BG4" t="n">
-        <v>2.820371314271597e-08</v>
+        <v>1.18665764148318e-06</v>
       </c>
       <c r="BH4" t="n">
-        <v>5.319955320715053e-08</v>
+        <v>5.994509137963178e-07</v>
       </c>
       <c r="BI4" t="n">
-        <v>3.365408929312252e-08</v>
+        <v>7.202044116638717e-07</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1.315271092039438e-08</v>
+        <v>9.866389518720098e-07</v>
       </c>
       <c r="BK4" t="n">
-        <v>3.162280881596757e-09</v>
+        <v>4.565092694974737e-07</v>
       </c>
       <c r="BL4" t="n">
-        <v>2.875708915439645e-08</v>
+        <v>2.349561043502035e-07</v>
       </c>
       <c r="BM4" t="n">
-        <v>3.046595509204053e-08</v>
+        <v>1.26659176657995e-06</v>
       </c>
       <c r="BN4" t="n">
-        <v>2.992281267211183e-08</v>
+        <v>2.427614447242377e-07</v>
       </c>
       <c r="BO4" t="n">
-        <v>1.025691753753222e-10</v>
+        <v>2.594258603494382e-07</v>
       </c>
       <c r="BP4" t="n">
-        <v>6.832378574017639e-08</v>
+        <v>2.046711415459868e-06</v>
       </c>
       <c r="BQ4" t="n">
-        <v>8.177106280982116e-08</v>
+        <v>2.087912207571208e-07</v>
       </c>
       <c r="BR4" t="n">
-        <v>6.583471989785039e-09</v>
+        <v>1.256473751709564e-07</v>
       </c>
       <c r="BS4" t="n">
-        <v>2.151207389999854e-08</v>
+        <v>3.416844833736832e-07</v>
       </c>
       <c r="BT4" t="n">
-        <v>2.055979031467814e-08</v>
+        <v>1.754041363710712e-06</v>
       </c>
       <c r="BU4" t="n">
-        <v>3.035614781765616e-08</v>
+        <v>7.844828076031263e-08</v>
       </c>
       <c r="BV4" t="n">
-        <v>3.428951345085807e-08</v>
+        <v>3.578977612050949e-07</v>
       </c>
       <c r="BW4" t="n">
-        <v>6.657093365447508e-08</v>
+        <v>2.094505475724873e-07</v>
       </c>
       <c r="BX4" t="n">
-        <v>2.915002461634231e-08</v>
+        <v>1.028271526593016e-06</v>
       </c>
       <c r="BY4" t="n">
-        <v>2.178142111119996e-08</v>
+        <v>1.903344696074782e-06</v>
       </c>
       <c r="BZ4" t="n">
-        <v>4.483777971131531e-08</v>
+        <v>9.047837323805652e-08</v>
       </c>
       <c r="CA4" t="n">
-        <v>1.268441707225065e-08</v>
+        <v>1.639384663576493e-07</v>
       </c>
       <c r="CB4" t="n">
-        <v>7.451228611898841e-08</v>
+        <v>1.359947987111809e-06</v>
       </c>
       <c r="CC4" t="n">
-        <v>2.973201684852711e-09</v>
+        <v>4.148035870343847e-08</v>
       </c>
       <c r="CD4" t="n">
-        <v>6.727099766123956e-09</v>
+        <v>5.952971378064831e-07</v>
       </c>
       <c r="CE4" t="n">
-        <v>5.763532584524e-08</v>
+        <v>6.660122409130054e-08</v>
       </c>
       <c r="CF4" t="n">
-        <v>7.185836370382503e-10</v>
+        <v>4.756593057209102e-07</v>
       </c>
       <c r="CG4" t="n">
-        <v>3.026443806675161e-08</v>
+        <v>8.052993507590145e-07</v>
       </c>
       <c r="CH4" t="n">
-        <v>7.232247689614724e-09</v>
+        <v>4.197068790290359e-07</v>
       </c>
       <c r="CI4" t="n">
-        <v>9.56735024537636e-10</v>
+        <v>6.508954015771451e-07</v>
       </c>
       <c r="CJ4" t="n">
-        <v>5.13479143648965e-08</v>
+        <v>6.36188417502126e-08</v>
       </c>
       <c r="CK4" t="n">
-        <v>2.581280522662155e-09</v>
+        <v>1.502197761737989e-07</v>
       </c>
       <c r="CL4" t="n">
-        <v>1.232763224834343e-08</v>
+        <v>5.101902047499607e-07</v>
       </c>
       <c r="CM4" t="n">
-        <v>7.677414259887883e-10</v>
+        <v>1.033846928066851e-07</v>
       </c>
       <c r="CN4" t="n">
-        <v>7.91116949727666e-10</v>
+        <v>1.520961291134881e-06</v>
       </c>
       <c r="CO4" t="n">
-        <v>1.404058913578865e-08</v>
+        <v>2.047390808002092e-06</v>
       </c>
       <c r="CP4" t="n">
-        <v>2.923255415510084e-09</v>
+        <v>1.410793061040749e-06</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1.302767493882584e-08</v>
+        <v>2.026814854616532e-06</v>
       </c>
       <c r="CR4" t="n">
-        <v>2.68470690123479e-09</v>
+        <v>1.179011064778024e-06</v>
       </c>
       <c r="CS4" t="n">
-        <v>1.907735125428189e-08</v>
+        <v>3.566059376680641e-07</v>
       </c>
       <c r="CT4" t="n">
-        <v>5.243769307661239e-10</v>
+        <v>1.527865947537066e-06</v>
       </c>
       <c r="CU4" t="n">
-        <v>3.42275230380551e-09</v>
+        <v>6.661803695351409e-07</v>
       </c>
       <c r="CV4" t="n">
-        <v>2.825770950565243e-09</v>
+        <v>2.634561440117977e-07</v>
       </c>
       <c r="CW4" t="n">
-        <v>4.394578922983783e-08</v>
+        <v>1.230283714903635e-07</v>
       </c>
       <c r="CX4" t="n">
-        <v>4.770449812951938e-09</v>
+        <v>6.69558062327269e-07</v>
       </c>
       <c r="CY4" t="n">
-        <v>1.765445212242867e-08</v>
+        <v>7.377606721092889e-07</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1.321138642929043e-09</v>
+        <v>3.205554435226077e-07</v>
       </c>
       <c r="DA4" t="n">
-        <v>8.852490962496518e-10</v>
+        <v>3.447643166509806e-07</v>
       </c>
       <c r="DB4" t="n">
-        <v>5.522780810451877e-08</v>
+        <v>1.249556476068392e-07</v>
       </c>
       <c r="DC4" t="n">
-        <v>7.917090094622381e-09</v>
+        <v>2.100000529026147e-07</v>
       </c>
       <c r="DD4" t="n">
-        <v>6.339873070970725e-10</v>
+        <v>6.110162757977378e-07</v>
       </c>
       <c r="DE4" t="n">
-        <v>1.265830036345506e-07</v>
+        <v>1.432302383364004e-07</v>
       </c>
       <c r="DF4" t="n">
-        <v>1.076006483913261e-08</v>
+        <v>9.528210966891493e-07</v>
       </c>
       <c r="DG4" t="n">
-        <v>6.673943886426059e-08</v>
+        <v>3.743450918136659e-07</v>
       </c>
       <c r="DH4" t="n">
-        <v>2.998964987455111e-08</v>
+        <v>6.47278397991613e-07</v>
       </c>
       <c r="DI4" t="n">
-        <v>1.004127003767508e-09</v>
+        <v>4.322677796153584e-06</v>
       </c>
       <c r="DJ4" t="n">
-        <v>7.161393966725882e-08</v>
+        <v>3.338715032441542e-06</v>
       </c>
       <c r="DK4" t="n">
-        <v>2.743689009321315e-08</v>
+        <v>9.296702501160325e-07</v>
       </c>
       <c r="DL4" t="n">
-        <v>1.974728469633646e-08</v>
+        <v>4.679133382978762e-07</v>
       </c>
       <c r="DM4" t="n">
-        <v>3.949416083059987e-08</v>
+        <v>1.749866328282224e-06</v>
       </c>
       <c r="DN4" t="n">
-        <v>4.097199912678207e-09</v>
+        <v>2.728415040564869e-07</v>
       </c>
       <c r="DO4" t="n">
-        <v>1.542675320820308e-08</v>
+        <v>1.46747515827883e-06</v>
       </c>
       <c r="DP4" t="n">
-        <v>5.63318351964881e-08</v>
+        <v>3.243016806209198e-07</v>
       </c>
       <c r="DQ4" t="n">
-        <v>3.51348390381645e-08</v>
+        <v>6.153181288937049e-07</v>
       </c>
       <c r="DR4" t="n">
-        <v>4.190324176533977e-08</v>
+        <v>2.160970097975223e-06</v>
       </c>
       <c r="DS4" t="n">
-        <v>5.141643555361952e-08</v>
+        <v>4.382549718684459e-07</v>
       </c>
       <c r="DT4" t="n">
-        <v>5.091741428486785e-08</v>
+        <v>6.373917926794093e-07</v>
       </c>
       <c r="DU4" t="n">
-        <v>4.588978086417228e-09</v>
+        <v>6.617804615416389e-08</v>
       </c>
       <c r="DV4" t="n">
-        <v>8.589006839088142e-09</v>
+        <v>5.137164862389909e-07</v>
       </c>
       <c r="DW4" t="n">
-        <v>2.829622580691193e-08</v>
+        <v>9.616830709546775e-08</v>
       </c>
       <c r="DX4" t="n">
-        <v>2.822587674700117e-08</v>
+        <v>4.760192950925557e-07</v>
       </c>
       <c r="DY4" t="n">
-        <v>4.59999647262066e-08</v>
+        <v>4.173903676019108e-07</v>
       </c>
       <c r="DZ4" t="n">
-        <v>2.97305646768109e-09</v>
+        <v>4.168643954471918e-07</v>
       </c>
       <c r="EA4" t="n">
-        <v>1.963866047560714e-08</v>
+        <v>4.203778587452689e-07</v>
       </c>
       <c r="EB4" t="n">
-        <v>5.022663174258923e-09</v>
+        <v>2.044925651034646e-08</v>
       </c>
       <c r="EC4" t="n">
-        <v>1.1079031025929e-09</v>
+        <v>3.114407149951148e-07</v>
       </c>
       <c r="ED4" t="n">
-        <v>1.901729440589861e-08</v>
+        <v>3.356685169819684e-07</v>
       </c>
       <c r="EE4" t="n">
-        <v>3.149703076132937e-08</v>
+        <v>5.61419483346981e-07</v>
       </c>
       <c r="EF4" t="n">
-        <v>1.741760868867459e-08</v>
+        <v>1.424276206307695e-06</v>
       </c>
       <c r="EG4" t="n">
-        <v>4.1397164807222e-08</v>
+        <v>5.470422479447734e-07</v>
       </c>
       <c r="EH4" t="n">
-        <v>3.606661991284454e-08</v>
+        <v>8.145574383888743e-07</v>
       </c>
       <c r="EI4" t="n">
-        <v>3.307052054424275e-08</v>
+        <v>7.77135937823914e-07</v>
       </c>
       <c r="EJ4" t="n">
-        <v>6.69732269642509e-09</v>
+        <v>3.283221872152353e-07</v>
       </c>
       <c r="EK4" t="n">
-        <v>8.506654936013547e-09</v>
+        <v>1.941311182918071e-07</v>
       </c>
       <c r="EL4" t="n">
-        <v>5.028956451269551e-08</v>
+        <v>3.99706152620638e-07</v>
       </c>
       <c r="EM4" t="n">
-        <v>1.603318899867645e-08</v>
+        <v>7.135938062674541e-07</v>
       </c>
       <c r="EN4" t="n">
-        <v>9.44427114291102e-09</v>
+        <v>1.086389829652035e-06</v>
       </c>
       <c r="EO4" t="n">
-        <v>5.260840651999388e-08</v>
+        <v>4.896883751825953e-07</v>
       </c>
       <c r="EP4" t="n">
-        <v>9.450822346934729e-10</v>
+        <v>8.579757349025385e-08</v>
       </c>
       <c r="EQ4" t="n">
-        <v>9.245529675183661e-09</v>
+        <v>7.702642506046686e-07</v>
       </c>
       <c r="ER4" t="n">
-        <v>1.459155996030859e-08</v>
+        <v>2.079416162814596e-06</v>
       </c>
       <c r="ES4" t="n">
-        <v>1.739324595462222e-08</v>
+        <v>1.27943997085822e-06</v>
       </c>
       <c r="ET4" t="n">
-        <v>1.76275243291002e-08</v>
+        <v>2.681529167603003e-07</v>
       </c>
       <c r="EU4" t="n">
-        <v>7.537862778406179e-09</v>
+        <v>7.120269174265559e-08</v>
       </c>
       <c r="EV4" t="n">
-        <v>2.143698552004025e-08</v>
+        <v>6.664475336037867e-07</v>
       </c>
       <c r="EW4" t="n">
-        <v>1.391733173150556e-09</v>
+        <v>3.873797140840907e-07</v>
       </c>
       <c r="EX4" t="n">
-        <v>2.149013589303195e-08</v>
+        <v>4.860827971242543e-07</v>
       </c>
       <c r="EY4" t="n">
-        <v>4.18547720926199e-08</v>
+        <v>8.482800950559977e-08</v>
       </c>
       <c r="EZ4" t="n">
-        <v>5.567506899950558e-09</v>
+        <v>5.994270964038151e-07</v>
       </c>
       <c r="FA4" t="n">
-        <v>3.022224603910217e-08</v>
+        <v>5.741413247051241e-07</v>
       </c>
       <c r="FB4" t="n">
-        <v>1.257423587475159e-08</v>
+        <v>2.094244067052387e-08</v>
       </c>
       <c r="FC4" t="n">
-        <v>8.699107212351009e-09</v>
+        <v>3.3794478326854e-07</v>
       </c>
       <c r="FD4" t="n">
-        <v>5.787163104287174e-08</v>
+        <v>8.032287723835907e-08</v>
       </c>
       <c r="FE4" t="n">
-        <v>1.764267176795897e-09</v>
+        <v>3.106814858711004e-07</v>
       </c>
       <c r="FF4" t="n">
-        <v>1.508140945460923e-09</v>
+        <v>4.26162529265639e-07</v>
       </c>
       <c r="FG4" t="n">
-        <v>3.242879031972734e-08</v>
+        <v>8.294001929698425e-08</v>
       </c>
       <c r="FH4" t="n">
-        <v>6.875397673411499e-08</v>
+        <v>6.424638172575214e-07</v>
       </c>
       <c r="FI4" t="n">
-        <v>6.826003584592399e-08</v>
+        <v>6.910664751558215e-07</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1.124971937827013e-08</v>
+        <v>4.326333282733685e-07</v>
       </c>
       <c r="FK4" t="n">
-        <v>3.860539976585642e-08</v>
+        <v>1.404224292400613e-08</v>
       </c>
       <c r="FL4" t="n">
-        <v>2.304986068679682e-08</v>
+        <v>7.764326710457681e-07</v>
       </c>
       <c r="FM4" t="n">
-        <v>5.910639799822093e-08</v>
+        <v>6.272711630117556e-07</v>
       </c>
       <c r="FN4" t="n">
-        <v>1.220754075603736e-08</v>
+        <v>1.444712296461148e-07</v>
       </c>
       <c r="FO4" t="n">
-        <v>3.458707453773968e-08</v>
+        <v>1.42351652243633e-07</v>
       </c>
       <c r="FP4" t="n">
-        <v>1.431877194590925e-08</v>
+        <v>1.485344114371401e-07</v>
       </c>
       <c r="FQ4" t="n">
-        <v>3.157189354396905e-08</v>
+        <v>6.085087989049498e-07</v>
       </c>
       <c r="FR4" t="n">
-        <v>1.592469267563956e-08</v>
+        <v>1.60546164806874e-06</v>
       </c>
       <c r="FS4" t="n">
-        <v>5.297623317801481e-08</v>
+        <v>1.715342477837112e-06</v>
       </c>
       <c r="FT4" t="n">
-        <v>2.513747432431046e-08</v>
+        <v>3.037955593754305e-06</v>
       </c>
       <c r="FU4" t="n">
-        <v>4.981103529644315e-08</v>
+        <v>7.892147095844848e-07</v>
       </c>
       <c r="FV4" t="n">
-        <v>2.254637720966457e-08</v>
+        <v>1.583947891958815e-06</v>
       </c>
       <c r="FW4" t="n">
-        <v>4.713515977528004e-08</v>
+        <v>5.122277570990263e-07</v>
       </c>
       <c r="FX4" t="n">
-        <v>1.002180916032103e-08</v>
+        <v>1.279042862734059e-06</v>
       </c>
       <c r="FY4" t="n">
-        <v>4.136339271099132e-08</v>
+        <v>4.650890730317769e-07</v>
       </c>
       <c r="FZ4" t="n">
-        <v>2.063923609796348e-08</v>
+        <v>2.977761539568746e-07</v>
       </c>
       <c r="GA4" t="n">
-        <v>1.316828246444857e-08</v>
+        <v>6.33200272659451e-07</v>
       </c>
       <c r="GB4" t="n">
-        <v>7.289906278629132e-08</v>
+        <v>1.270487700821832e-06</v>
       </c>
       <c r="GC4" t="n">
-        <v>3.912715129672506e-08</v>
+        <v>3.027333377758623e-06</v>
       </c>
       <c r="GD4" t="n">
-        <v>7.014162584084715e-09</v>
+        <v>1.935099362526671e-06</v>
       </c>
       <c r="GE4" t="n">
-        <v>3.146787719288113e-08</v>
+        <v>1.577506907324278e-07</v>
       </c>
       <c r="GF4" t="n">
-        <v>1.831794271822673e-08</v>
+        <v>1.720401655802561e-06</v>
       </c>
       <c r="GG4" t="n">
-        <v>7.257772161040066e-10</v>
+        <v>6.758334052392456e-07</v>
       </c>
     </row>
     <row r="5">
